--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Test1.1 - 2023/15/05 11:03:53</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/15/05 19:53:33</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Test1.1 - 2023/15/05 19:53:33</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/16/05 12:18:48</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/16/05 12:46:02</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Test1.1</t>
   </si>
   <si>
-    <t>Test1.1 - 2023/05/05 05:47:33</t>
+    <t>Test1.1 - 2023/17/05 19:43:49</t>
   </si>
   <si>
     <t>1234-RD57989</t>
@@ -67,7 +67,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>C:\\Hajira\\ELL\\Automation\\File_Upload Test\\Test.txt</t>
+    <t>C:\ELL\Automation\\File Upload\\Text.txt</t>
   </si>
   <si>
     <t>Multimeter</t>
@@ -100,46 +100,10 @@
     <t>File Attachment</t>
   </si>
   <si>
-    <t>Test1.1 - 2023/08/05 07:12:20</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/08/05 09:42:49</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/09/05 01:20:57</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/09/05 23:13:08</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/10/05 01:41:07</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/11/05 01:23:26</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/11/05 11:03:59</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/11/05 11:17:27</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/12/05 11:44:51</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/12/05 19:26:43</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/15/05 11:03:53</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/15/05 19:53:33</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/16/05 12:18:48</t>
-  </si>
-  <si>
-    <t>Test1.1 - 2023/16/05 12:46:02</t>
+    <t>Test1.1 - 2023/17/05 19:57:56</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/18/05 11:11:47</t>
   </si>
 </sst>
 </file>
@@ -147,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -193,6 +157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,6 +179,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -207,8 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +219,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,91 +257,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,19 +328,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,31 +466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,115 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,9 +533,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,206 +623,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="10" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="23" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="27" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="16" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="23" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="23" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5"/>
@@ -1207,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Test1.1 - 2023/18/05 11:11:47</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/18/05 11:34:13</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/22/05 11:23:18</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/22/05 13:16:05</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -113,6 +113,24 @@
   </si>
   <si>
     <t>Test1.1 - 2023/22/05 13:16:05</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 11:11:09</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 12:41:30</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 12:48:32</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 15:47:31</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 16:04:43</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 16:56:25</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/Excel/ELL_Add Instrument & Type.xlsx
+++ b/Excel/ELL_Add Instrument & Type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>InsType_Name</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Test1.1 - 2023/23/05 16:56:25</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 17:49:41</t>
+  </si>
+  <si>
+    <t>Test1.1 - 2023/23/05 18:09:49</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
